--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3906.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3906.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.714923113568062</v>
+        <v>1.849458694458008</v>
       </c>
       <c r="B1">
-        <v>2.205804511541686</v>
+        <v>3.187530279159546</v>
       </c>
       <c r="C1">
-        <v>3.324629358225053</v>
+        <v>2.93264102935791</v>
       </c>
       <c r="D1">
-        <v>8.188552699498661</v>
+        <v>3.512891054153442</v>
       </c>
       <c r="E1">
-        <v>0.7275421040821894</v>
+        <v>3.891805648803711</v>
       </c>
     </row>
   </sheetData>
